--- a/countrylist.xlsx
+++ b/countrylist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matpo\Documents\GitHub\Eu4-The-Odd-Empires--BETA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B32262-08F4-44F1-A95E-55F82B5A5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE9597-EBF5-415F-800C-3E34C8ADBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26DFDEC5-5D8D-4408-AA0F-42D64A13A4F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Normal</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Kristaperioa</t>
+  </si>
+  <si>
+    <t>Thule</t>
+  </si>
+  <si>
+    <t>Aegyptus</t>
   </si>
 </sst>
 </file>
@@ -295,10 +301,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115444F-490F-4956-A662-323D83CC2DF0}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,7 +668,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -680,7 +686,7 @@
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -698,7 +704,7 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -716,7 +722,7 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -734,7 +740,7 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -746,9 +752,11 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -762,7 +770,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -776,7 +784,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -790,7 +798,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -801,7 +809,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -812,7 +820,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -823,7 +831,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -834,7 +842,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -845,7 +853,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -853,7 +861,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -861,7 +869,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -869,7 +877,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
@@ -877,7 +885,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
@@ -885,7 +893,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
@@ -893,7 +901,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
@@ -901,7 +909,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -909,15 +917,21 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/countrylist.xlsx
+++ b/countrylist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matpo\Documents\GitHub\Eu4-The-Odd-Empires--BETA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE9597-EBF5-415F-800C-3E34C8ADBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA0B59-79C7-41DF-9AA2-59AB54B49F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26DFDEC5-5D8D-4408-AA0F-42D64A13A4F2}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{26DFDEC5-5D8D-4408-AA0F-42D64A13A4F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Normal</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Aegyptus</t>
+  </si>
+  <si>
+    <t>Yakub</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +758,9 @@
       <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,7 +908,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
